--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
-    <sheet name="问题" sheetId="2" r:id="rId2"/>
+    <sheet name="检查说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>项目检查报告</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.优先级相关说明：
   A：为检查必备项，任何一项缺失，即表示检查不合格；
   B：为基础检查项，作为项目检查结果为优秀的组成部分；
@@ -276,6 +282,15 @@
   3.1 优秀、合格项目，自检查日后1个月移交至客服部；
   3.2 不合格项目，由项目经理负责响应支持，直至检查通过。</t>
     </r>
+  </si>
+  <si>
+    <t>检查
+流程</t>
+  </si>
+  <si>
+    <t>1.首次检查，以收到完工报告邮件为检查起点，原则上一周内完成项目检查工作并发出检查结果报告；
+2.纸质文档提交至陈方晴处，检查时，需要查看纸质时，由检查人员与陈方晴联系；
+3.检查未合格项目，二次检查工作由实施人员或项目经理提起再次检查申请。</t>
   </si>
 </sst>
 </file>
@@ -329,7 +344,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,11 +411,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,8 +447,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,23 +480,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,62 +490,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -478,12 +499,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -518,6 +533,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,7 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,73 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,74 +717,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="64">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1357,21 +1372,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1379,9 +1379,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1390,9 +1388,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1403,8 +1399,66 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,36 +1473,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1472,17 +1496,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,17 +1545,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1514,10 +1553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1526,137 +1565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,16 +1957,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2323,12 +2374,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2933,8 +2984,22 @@
       <c r="G40" s="89"/>
       <c r="H40" s="90"/>
     </row>
+    <row r="41" ht="48" customHeight="1" spans="1:8">
+      <c r="A41" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="93"/>
+      <c r="H41" s="94"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="52">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -2971,6 +3036,7 @@
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B41:H41"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A10:A16"/>
     <mergeCell ref="A17:A26"/>
@@ -2999,7 +3065,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="28080" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>项目检查报告</t>
   </si>
@@ -104,7 +104,7 @@
     <t>检查结论</t>
   </si>
   <si>
-    <t>理由</t>
+    <t>备注</t>
   </si>
   <si>
     <t>文
@@ -240,9 +240,6 @@
   </si>
   <si>
     <t>结果</t>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <r>
@@ -300,8 +297,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -357,25 +354,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,53 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,6 +416,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -471,11 +469,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -500,7 +497,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -509,6 +506,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,187 +536,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,6 +1476,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1483,6 +1512,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1495,56 +1548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1553,149 +1556,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="64" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1708,110 +1711,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1819,50 +1822,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1870,6 +1834,84 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1879,70 +1921,52 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1957,7 +1981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1969,7 +1993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2079,6 +2103,171 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>88265</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1651635" cy="730250"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7984490" y="7864475"/>
+          <a:ext cx="1651635" cy="730250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>合格</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="66675"/>
+          <a:ext cx="6466840" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>46355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1181100"/>
+          <a:ext cx="12562205" cy="7952105"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2376,25 +2565,25 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="9.625" customWidth="1"/>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="8.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56" customHeight="1" spans="1:8">
+    <row r="1" ht="40" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2631,7 @@
       </c>
       <c r="H3" s="15"/>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="1:8">
+    <row r="4" ht="39" customHeight="1" spans="1:8">
       <c r="A4" s="10"/>
       <c r="B4" s="14" t="s">
         <v>9</v>
@@ -2452,7 +2641,7 @@
       <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
@@ -2468,535 +2657,535 @@
       <c r="E5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="17"/>
       <c r="G5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:8">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17" t="s">
+    <row r="6" ht="36" customHeight="1" spans="1:8">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:8">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:8">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="39" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="44" t="s">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="47" t="s">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50" t="s">
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="47" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="53"/>
-      <c r="H16" s="54"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30" t="s">
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="38"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="39" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="38"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="42"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="56" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="42"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="39" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="38"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="42"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="58" t="s">
+      <c r="C25" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="40" t="s">
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="58" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="40" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="38"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="42"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67" t="s">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="36" t="s">
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="65"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="73"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="65"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="69"/>
+      <c r="B30" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="73"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="67" t="s">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="36" t="s">
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="65"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="38"/>
+      <c r="A32" s="69"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="42"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66" t="s">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="58" t="s">
+      <c r="C33" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="40" t="s">
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+      <c r="F33" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="37"/>
-      <c r="H33" s="38"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="77"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="44" t="s">
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="58"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="34" t="s">
+      <c r="D35" s="83"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="65"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="80" t="s">
+      <c r="A36" s="69"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="34" t="s">
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="65"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="69"/>
+      <c r="B37" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="34" t="s">
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="G37" s="37"/>
-      <c r="H37" s="38"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="42"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="74"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="81" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="52" t="s">
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="53"/>
-      <c r="H38" s="54"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="58"/>
     </row>
     <row r="39" ht="61" customHeight="1" spans="1:8">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="83"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="84"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85" t="s">
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="H39" s="86"/>
+      <c r="H39" s="93"/>
     </row>
     <row r="40" ht="141" customHeight="1" spans="1:8">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="B40" s="88" t="s">
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="97"/>
+    </row>
+    <row r="41" ht="48" customHeight="1" spans="1:8">
+      <c r="A41" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="89"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-    </row>
-    <row r="41" ht="48" customHeight="1" spans="1:8">
-      <c r="A41" s="91" t="s">
+      <c r="B41" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="94"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -3065,8 +3254,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3074,5 +3263,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="20895" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -295,10 +295,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -354,11 +354,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -370,30 +385,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,9 +432,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,13 +470,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -478,7 +478,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,13 +536,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,169 +674,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1451,17 +1451,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1492,62 +1497,57 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1556,10 +1556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,133 +1568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="60" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2183,95 +2183,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="66675"/>
-          <a:ext cx="6466840" cy="1028700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>227330</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>46355</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="1181100"/>
-          <a:ext cx="12562205" cy="7952105"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3263,6 +3174,5 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20895" windowHeight="12600"/>
+    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
     <sheet name="检查说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>项目检查报告</t>
   </si>
@@ -38,6 +38,9 @@
     <t>酒店名称</t>
   </si>
   <si>
+    <t>海口兴泰粤海酒店</t>
+  </si>
+  <si>
     <t>项
 目
 情
@@ -47,13 +50,25 @@
     <t>版本</t>
   </si>
   <si>
+    <t>标准版</t>
+  </si>
+  <si>
     <t>项目经理</t>
   </si>
   <si>
+    <t>李秀光</t>
+  </si>
+  <si>
     <t>酒店地址</t>
   </si>
   <si>
+    <t>海口</t>
+  </si>
+  <si>
     <t>IP地址:端口</t>
+  </si>
+  <si>
+    <t>182.254.219.150:8090</t>
   </si>
   <si>
     <t>实施人员</t>
@@ -122,7 +137,16 @@
     <t>A</t>
   </si>
   <si>
+    <t>通过</t>
+  </si>
+  <si>
     <t>酒店培训签到表</t>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>皓谷项目</t>
   </si>
   <si>
     <t>项目阶段性离场报告</t>
@@ -160,6 +184,12 @@
     <t>每周项目状况报告</t>
   </si>
   <si>
+    <t>项目完工报告【合同编号】是否正确</t>
+  </si>
+  <si>
+    <t>项目完工报告【甲方乙方】是否正确</t>
+  </si>
+  <si>
     <t>重要会议纪要</t>
   </si>
   <si>
@@ -196,6 +226,9 @@
   </si>
   <si>
     <t>A/B</t>
+  </si>
+  <si>
+    <t>详见【检查说明】</t>
   </si>
   <si>
     <t>余额</t>
@@ -295,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -340,8 +373,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -361,7 +456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,11 +471,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,38 +487,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,45 +518,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -536,49 +569,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,133 +749,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,11 +1486,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,48 +1558,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1529,21 +1577,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1556,10 +1589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1568,137 +1601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1748,6 +1781,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1825,8 +1861,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1834,6 +1870,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1879,6 +1918,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1911,15 +1959,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2109,12 +2148,12 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>88265</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>774065</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1651635" cy="730250"/>
+    <xdr:ext cx="1842135" cy="730250"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="矩形 3"/>
@@ -2122,8 +2161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7984490" y="7864475"/>
-          <a:ext cx="1651635" cy="730250"/>
+          <a:off x="7793990" y="8499475"/>
+          <a:ext cx="1842135" cy="730250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2164,7 +2203,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>合格</a:t>
+            <a:t>不合格</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
             <a:solidFill>
@@ -2183,6 +2222,95 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>18415</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="635"/>
+          <a:ext cx="9618980" cy="4980940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>656590</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635" y="4972050"/>
+          <a:ext cx="8199755" cy="5904865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2474,12 +2602,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2511,7 +2639,9 @@
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6">
+        <v>42837</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2529,577 +2659,643 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="15"/>
-    </row>
-    <row r="4" ht="39" customHeight="1" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="62" customHeight="1" spans="1:8">
       <c r="A4" s="10"/>
       <c r="B4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="16"/>
+        <v>14</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>15</v>
+      </c>
       <c r="G4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="17"/>
+        <v>18</v>
+      </c>
+      <c r="F5" s="18">
+        <v>42826</v>
+      </c>
       <c r="G5" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="23"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
-      <c r="A8" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:8">
-      <c r="A9" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
+      <c r="B9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36"/>
+      <c r="A10" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="47"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="51" t="s">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="54" t="s">
+      <c r="G19" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="51" t="s">
+      <c r="H19" s="46"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="46"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="46"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="38"/>
+      <c r="B25" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="58"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31" t="s">
+      <c r="H25" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="33" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="37"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="41"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="69"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="42"/>
+      <c r="A29" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="69"/>
-      <c r="B30" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="42"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="69"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70" t="s">
-        <v>49</v>
-      </c>
+      <c r="A33" s="74"/>
+      <c r="B33" s="75"/>
       <c r="C33" s="62" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
-      <c r="F33" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="41"/>
-      <c r="H33" s="42"/>
+      <c r="F33" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80" t="s">
+      <c r="A34" s="74"/>
+      <c r="B34" s="76"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="46"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="74"/>
+      <c r="B35" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="81"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="58"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="36"/>
+      <c r="C35" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="69"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="86"/>
-      <c r="H36" s="42"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="69"/>
-      <c r="B37" s="38" t="s">
-        <v>65</v>
+      <c r="A37" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>72</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D37" s="85"/>
       <c r="E37" s="85"/>
-      <c r="F37" s="41" t="s">
-        <v>63</v>
+      <c r="F37" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="G37" s="86"/>
-      <c r="H37" s="42"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="78"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="87" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
-      <c r="F38" s="57" t="s">
-        <v>63</v>
+      <c r="F38" s="42" t="s">
+        <v>74</v>
       </c>
       <c r="G38" s="88"/>
-      <c r="H38" s="58"/>
-    </row>
-    <row r="39" ht="61" customHeight="1" spans="1:8">
-      <c r="A39" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" s="93"/>
-    </row>
-    <row r="40" ht="141" customHeight="1" spans="1:8">
-      <c r="A40" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="97"/>
-    </row>
-    <row r="41" ht="48" customHeight="1" spans="1:8">
-      <c r="A41" s="98" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="99" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="101"/>
+      <c r="H38" s="46"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="74"/>
+      <c r="B39" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="88"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="80"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" ht="61" customHeight="1" spans="1:8">
+      <c r="A41" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="92"/>
+      <c r="C41" s="93"/>
+      <c r="D41" s="93"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="95"/>
+    </row>
+    <row r="42" ht="141" customHeight="1" spans="1:8">
+      <c r="A42" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
+    </row>
+    <row r="43" ht="48" customHeight="1" spans="1:8">
+      <c r="A43" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="102"/>
+      <c r="D43" s="102"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="102"/>
+      <c r="G43" s="102"/>
+      <c r="H43" s="103"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
@@ -3134,23 +3330,25 @@
     <mergeCell ref="C36:E36"/>
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B39:F39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:H43"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A10:A16"/>
-    <mergeCell ref="A17:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A17:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A40"/>
     <mergeCell ref="B10:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B17:B24"/>
     <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3165,8 +3363,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3174,5 +3372,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -373,6 +373,79 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -381,32 +454,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,59 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,22 +504,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,187 +569,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,6 +1480,54 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,64 +1542,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1567,16 +1567,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1589,10 +1589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,133 +1601,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2222,95 +2222,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>635</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>18415</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="635"/>
-          <a:ext cx="9618980" cy="4980940"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>656590</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>75565</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635" y="4972050"/>
-          <a:ext cx="8199755" cy="5904865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3364,7 +3275,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3372,6 +3283,5 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>项目检查报告</t>
   </si>
@@ -38,9 +38,6 @@
     <t>酒店名称</t>
   </si>
   <si>
-    <t>海口兴泰粤海酒店</t>
-  </si>
-  <si>
     <t>项
 目
 情
@@ -50,25 +47,13 @@
     <t>版本</t>
   </si>
   <si>
-    <t>标准版</t>
-  </si>
-  <si>
     <t>项目经理</t>
   </si>
   <si>
-    <t>李秀光</t>
-  </si>
-  <si>
     <t>酒店地址</t>
   </si>
   <si>
-    <t>海口</t>
-  </si>
-  <si>
     <t>IP地址:端口</t>
-  </si>
-  <si>
-    <t>182.254.219.150:8090</t>
   </si>
   <si>
     <t>实施人员</t>
@@ -137,16 +122,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>通过</t>
-  </si>
-  <si>
     <t>酒店培训签到表</t>
-  </si>
-  <si>
-    <t>未通过</t>
-  </si>
-  <si>
-    <t>皓谷项目</t>
   </si>
   <si>
     <t>项目阶段性离场报告</t>
@@ -226,9 +202,6 @@
   </si>
   <si>
     <t>A/B</t>
-  </si>
-  <si>
-    <t>详见【检查说明】</t>
   </si>
   <si>
     <t>余额</t>
@@ -329,9 +302,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -373,46 +346,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,6 +357,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,14 +398,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -457,6 +415,38 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,17 +468,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,16 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,37 +542,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,145 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,6 +1457,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1499,17 +1505,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,65 +1554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1589,10 +1562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,137 +1574,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1958,6 +1931,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2203,7 +2179,7 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>不合格</a:t>
+            <a:t>合格</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="4000" b="1">
             <a:solidFill>
@@ -2515,10 +2491,10 @@
   <sheetPr/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2550,9 +2526,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6">
-        <v>42837</v>
-      </c>
+      <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2570,100 +2544,86 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>11</v>
-      </c>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" ht="62" customHeight="1" spans="1:8">
       <c r="A4" s="10"/>
       <c r="B4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>13</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F4" s="17"/>
       <c r="G4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="15" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:8">
       <c r="A5" s="10"/>
       <c r="B5" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="18">
-        <v>42826</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="F5" s="18"/>
       <c r="G5" s="14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" ht="36" customHeight="1" spans="1:8">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="22"/>
       <c r="E6" s="20" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F6" s="23"/>
       <c r="G6" s="20" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H6" s="24"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:8">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="22"/>
       <c r="E7" s="20" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H7" s="24"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:8">
       <c r="A8" s="25" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -2675,74 +2635,68 @@
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:8">
       <c r="A9" s="28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
       <c r="F9" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
       <c r="F10" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G10" s="36"/>
       <c r="H10" s="37"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D12" s="44"/>
       <c r="E12" s="44"/>
       <c r="F12" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="46"/>
@@ -2751,12 +2705,12 @@
       <c r="A13" s="47"/>
       <c r="B13" s="48"/>
       <c r="C13" s="49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13" s="51"/>
       <c r="H13" s="52"/>
@@ -2765,12 +2719,12 @@
       <c r="A14" s="47"/>
       <c r="B14" s="48"/>
       <c r="C14" s="53" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="55"/>
       <c r="F14" s="56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
@@ -2779,12 +2733,12 @@
       <c r="A15" s="47"/>
       <c r="B15" s="48"/>
       <c r="C15" s="53" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D15" s="54"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
@@ -2793,80 +2747,72 @@
       <c r="A16" s="57"/>
       <c r="B16" s="58"/>
       <c r="C16" s="53" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="55"/>
       <c r="F16" s="56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G16" s="59"/>
       <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="32" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B17" s="61" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="34"/>
       <c r="F17" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="43"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="C18" s="40" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="42" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G18" s="42"/>
       <c r="H18" s="46"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="38"/>
       <c r="B19" s="39"/>
       <c r="C19" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>37</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G19" s="42"/>
       <c r="H19" s="46"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="38"/>
       <c r="B20" s="39"/>
       <c r="C20" s="62" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D20" s="63"/>
       <c r="E20" s="64"/>
       <c r="F20" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="46"/>
@@ -2875,12 +2821,12 @@
       <c r="A21" s="38"/>
       <c r="B21" s="39"/>
       <c r="C21" s="62" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D21" s="63"/>
       <c r="E21" s="64"/>
       <c r="F21" s="41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43"/>
@@ -2889,12 +2835,12 @@
       <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="44" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
       <c r="F22" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="46"/>
@@ -2903,12 +2849,12 @@
       <c r="A23" s="38"/>
       <c r="B23" s="39"/>
       <c r="C23" s="65" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
       <c r="F23" s="66" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="46"/>
@@ -2917,12 +2863,12 @@
       <c r="A24" s="38"/>
       <c r="B24" s="39"/>
       <c r="C24" s="65" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
       <c r="F24" s="66" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="46"/>
@@ -2930,33 +2876,29 @@
     <row r="25" spans="1:8">
       <c r="A25" s="38"/>
       <c r="B25" s="39" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="40"/>
       <c r="F25" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="43" t="s">
-        <v>40</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="38"/>
       <c r="B26" s="39"/>
       <c r="C26" s="44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="44"/>
       <c r="F26" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G26" s="42"/>
       <c r="H26" s="46"/>
@@ -2964,15 +2906,15 @@
     <row r="27" spans="1:8">
       <c r="A27" s="38"/>
       <c r="B27" s="39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D27" s="68"/>
       <c r="E27" s="69"/>
       <c r="F27" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G27" s="42"/>
       <c r="H27" s="46"/>
@@ -2981,22 +2923,22 @@
       <c r="A28" s="38"/>
       <c r="B28" s="39"/>
       <c r="C28" s="67" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="69"/>
       <c r="F28" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G28" s="42"/>
       <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="32" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B29" s="70" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C29" s="71"/>
       <c r="D29" s="72"/>
@@ -3009,26 +2951,22 @@
       <c r="A30" s="74"/>
       <c r="B30" s="75"/>
       <c r="C30" s="62" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D30" s="63"/>
       <c r="E30" s="64"/>
       <c r="F30" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="46" t="s">
-        <v>66</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="74"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="46"/>
@@ -3036,11 +2974,11 @@
     <row r="32" spans="1:8">
       <c r="A32" s="74"/>
       <c r="B32" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
+        <v>58</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
       <c r="H32" s="46"/>
@@ -3049,24 +2987,22 @@
       <c r="A33" s="74"/>
       <c r="B33" s="75"/>
       <c r="C33" s="62" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D33" s="63"/>
       <c r="E33" s="64"/>
       <c r="F33" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="42" t="s">
-        <v>37</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G33" s="42"/>
       <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="74"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
       <c r="F34" s="42"/>
       <c r="G34" s="42"/>
       <c r="H34" s="46"/>
@@ -3074,136 +3010,136 @@
     <row r="35" spans="1:8">
       <c r="A35" s="74"/>
       <c r="B35" s="75" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D35" s="68"/>
       <c r="E35" s="69"/>
       <c r="F35" s="45" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G35" s="42"/>
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="83"/>
-      <c r="E36" s="84"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85"/>
       <c r="F36" s="50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G36" s="59"/>
       <c r="H36" s="60"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="32" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B37" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
+        <v>63</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="86"/>
+      <c r="E37" s="86"/>
       <c r="F37" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="86"/>
+        <v>65</v>
+      </c>
+      <c r="G37" s="87"/>
       <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="74"/>
       <c r="B38" s="39"/>
-      <c r="C38" s="87" t="s">
-        <v>75</v>
-      </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
+      <c r="C38" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
       <c r="F38" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="88"/>
+        <v>65</v>
+      </c>
+      <c r="G38" s="89"/>
       <c r="H38" s="46"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="74"/>
       <c r="B39" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="87"/>
-      <c r="E39" s="87"/>
+        <v>67</v>
+      </c>
+      <c r="C39" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
       <c r="F39" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="89"/>
+      <c r="H39" s="46"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="81"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="91"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" ht="61" customHeight="1" spans="1:8">
+      <c r="A41" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="H41" s="96"/>
+    </row>
+    <row r="42" ht="141" customHeight="1" spans="1:8">
+      <c r="A42" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
+    </row>
+    <row r="43" ht="48" customHeight="1" spans="1:8">
+      <c r="A43" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="88"/>
-      <c r="H39" s="46"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="80"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="89" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="90"/>
-      <c r="H40" s="60"/>
-    </row>
-    <row r="41" ht="61" customHeight="1" spans="1:8">
-      <c r="A41" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
-      <c r="G41" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="H41" s="95"/>
-    </row>
-    <row r="42" ht="141" customHeight="1" spans="1:8">
-      <c r="A42" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="97" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
-    </row>
-    <row r="43" ht="48" customHeight="1" spans="1:8">
-      <c r="A43" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="102"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
-      <c r="H43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -3262,6 +3198,11 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="D3:D7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
+      <formula1>"标准版,商务版,快捷版"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3274,7 +3215,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>

--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
@@ -301,10 +301,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -353,6 +353,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -360,8 +376,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -384,21 +423,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,17 +452,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,24 +475,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,14 +484,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,19 +548,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,43 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,109 +722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,6 +1453,36 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,6 +1496,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1490,62 +1531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1554,6 +1539,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1562,10 +1562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1574,133 +1574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="62" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="65" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="63" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,7 +2494,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3198,9 +3198,12 @@
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="D3:D7"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3">
       <formula1>"标准版,商务版,快捷版"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G40">
+      <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GcOps/项目检查报告.xlsx
+++ b/GcOps/项目检查报告.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="报告" sheetId="1" r:id="rId1"/>
     <sheet name="检查说明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,8 +303,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -346,66 +346,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -422,22 +362,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -453,15 +387,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,6 +427,37 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -491,6 +477,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -542,43 +542,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,43 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,91 +716,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1453,36 +1453,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1496,6 +1466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1508,6 +1493,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1518,6 +1518,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,15 +1540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1562,10 +1562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1574,133 +1574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="62" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2494,7 +2494,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
